--- a/Max_Ops_Score_Results.xlsx
+++ b/Max_Ops_Score_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlekBabich\Projects\max_ops_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C78E0E-3E10-476C-9311-444D871D237D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC42984-F0CB-4815-94FD-253E90469151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESULTS" sheetId="1" r:id="rId1"/>
@@ -480,9 +480,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -490,6 +487,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,7 +858,9 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="15"/>
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
       <c r="C3" s="8" t="s">
         <v>27</v>
       </c>
@@ -901,7 +903,9 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="16"/>
+      <c r="B4" s="16">
+        <v>2</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>22</v>
       </c>
@@ -961,13 +965,13 @@
       <c r="G5" s="9">
         <v>29.443000000000001</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="9">
         <v>30.015000000000001</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="19" t="s">
         <v>31</v>
       </c>
       <c r="K5" s="13">
@@ -987,27 +991,49 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="20">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="8" t="e">
+      <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
+        <v>102.21769999999999</v>
+      </c>
+      <c r="F6" s="17">
+        <v>103.557</v>
+      </c>
+      <c r="G6" s="17">
+        <v>98.438000000000002</v>
+      </c>
+      <c r="H6" s="17">
+        <v>96.941000000000003</v>
+      </c>
+      <c r="I6" s="17">
+        <v>100.67100000000001</v>
+      </c>
+      <c r="J6" s="17">
+        <v>101.795</v>
+      </c>
+      <c r="K6" s="17">
+        <v>99.32</v>
+      </c>
+      <c r="L6" s="17">
+        <v>105.994</v>
+      </c>
+      <c r="M6" s="17">
+        <v>109.43</v>
+      </c>
+      <c r="N6" s="17">
+        <v>105.666</v>
+      </c>
+      <c r="O6" s="18">
+        <v>100.36499999999999</v>
+      </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="14"/>
